--- a/robots_report.xlsx
+++ b/robots_report.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
-    <sheet name="A" sheetId="2" r:id="rId2"/>
-    <sheet name="D" sheetId="3" r:id="rId3"/>
+    <sheet name="D" sheetId="2" r:id="rId2"/>
+    <sheet name="A" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Model</t>
   </si>
@@ -42,19 +42,22 @@
     <t>V2</t>
   </si>
   <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
+    <t>P8</t>
+  </si>
+  <si>
     <t>P9</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>D2</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -479,6 +482,17 @@
         <v>9</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
     </row>
@@ -508,21 +522,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>1</v>
